--- a/xlsx/立陶宛_intext.xlsx
+++ b/xlsx/立陶宛_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="796">
   <si>
     <t>立陶宛</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>立陶宛國旗</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_立陶宛</t>
+    <t>立陶宛国旗</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_立陶宛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>立陶宛國徽</t>
+    <t>立陶宛国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AA%9E</t>
   </si>
   <si>
-    <t>立陶宛語</t>
+    <t>立陶宛语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%AD%8C_(%E7%AB%8B%E9%99%B6%E5%AE%9B)</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E7%B4%90%E6%96%AF</t>
   </si>
   <si>
-    <t>維爾紐斯</t>
+    <t>维尔纽斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EET</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>波蘭人</t>
+    <t>波兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>俄羅斯人</t>
+    <t>俄罗斯人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF%E4%BA%BA</t>
@@ -179,43 +179,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>烏克蘭人</t>
+    <t>乌克兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%83%E9%9D%BC%E4%BA%BA</t>
   </si>
   <si>
-    <t>韃靼人</t>
+    <t>鞑靼人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>德國人</t>
+    <t>德国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%A7%86%E4%BA%BA</t>
   </si>
   <si>
-    <t>羅姆人</t>
+    <t>罗姆人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>拉脫維亞人</t>
+    <t>拉脱维亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E6%97%A5</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄羅斯帝國</t>
+    <t>俄罗斯帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AE%AE%E4%BC%9A</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
+    <t>议会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E6%80%BB%E7%BB%9F</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E6%80%BB%E7%90%86</t>
@@ -293,19 +293,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%83%8F%E7%95%99%E6%96%AF%C2%B7%E6%80%9D%E7%A7%91%E5%A8%81%E7%88%BE%E5%85%A7%E9%87%8C</t>
   </si>
   <si>
-    <t>薩烏留斯·思科威爾內里</t>
+    <t>萨乌留斯·思科威尔内里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E9%93%B6%E8%A1%8C</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
+    <t>欧元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.lt</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7%E4%B8%89%E5%9B%BD</t>
@@ -413,25 +413,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7</t>
   </si>
   <si>
-    <t>波羅的海</t>
+    <t>波罗的海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%B0%94%E7%BA%BD%E6%96%AF</t>
   </si>
   <si>
-    <t>维尔纽斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84</t>
   </si>
   <si>
-    <t>北約</t>
+    <t>北约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B3%E6%A0%B9%E5%85%AC%E7%BA%A6</t>
@@ -443,27 +440,21 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
   </si>
   <si>
-    <t>北歐</t>
+    <t>北欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%90</t>
   </si>
   <si>
-    <t>東歐</t>
+    <t>东欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E9%82%A6</t>
   </si>
   <si>
@@ -473,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>波蘭立陶宛聯邦</t>
+    <t>波兰立陶宛联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E4%BF%84</t>
@@ -485,13 +476,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%A7%E6%9E%97</t>
@@ -515,13 +506,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>立陶宛歷史</t>
+    <t>立陶宛历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>印歐語系</t>
+    <t>印欧语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E4%BA%BA</t>
@@ -533,55 +524,52 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>立陶宛大公國</t>
+    <t>立陶宛大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E7%8E%8B%E5%AE%A4</t>
   </si>
   <si>
-    <t>波蘭王室</t>
+    <t>波兰王室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BE%B7%E7%B6%AD%E5%B8%8C</t>
   </si>
   <si>
-    <t>海德維希</t>
+    <t>海德维希</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E8%93%8B%E6%8B%89</t>
   </si>
   <si>
-    <t>約蓋拉</t>
+    <t>约盖拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%B8%83%E6%9E%97%E8%81%AF%E5%90%88</t>
   </si>
   <si>
-    <t>盧布林聯合</t>
+    <t>卢布林联合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>普魯士</t>
+    <t>普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
+    <t>奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
   </si>
   <si>
-    <t>第一次世界大战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志帝國</t>
+    <t>德意志帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%9C%88%E9%9D%A9%E5%91%BD</t>
@@ -599,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AF%A7</t>
   </si>
   <si>
-    <t>列寧</t>
+    <t>列宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%BB%B4%E5%9F%83%E6%94%BF%E6%9D%83</t>
@@ -623,25 +611,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>東普魯士</t>
+    <t>东普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
   </si>
   <si>
-    <t>第二次世界大战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
   </si>
   <si>
-    <t>苏联</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E9%BB%A8</t>
   </si>
   <si>
-    <t>勞動黨</t>
+    <t>劳动党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E6%94%BF%E6%B2%BB</t>
@@ -653,9 +635,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>立陶宛議會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
   </si>
   <si>
@@ -689,15 +668,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7</t>
   </si>
   <si>
-    <t>波罗的海</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD</t>
   </si>
   <si>
@@ -707,9 +680,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%BA%BF</t>
   </si>
   <si>
-    <t>海岸线</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
   </si>
   <si>
@@ -731,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97</t>
   </si>
   <si>
-    <t>東南</t>
+    <t>东南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0</t>
@@ -761,9 +731,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E4%BD%A9%E9%81%94</t>
   </si>
   <si>
-    <t>克萊佩達</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E7%BA%B3%E6%96%AF</t>
   </si>
   <si>
@@ -809,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E9%9F%83%E9%9D%BC%E4%BA%BA</t>
   </si>
   <si>
-    <t>立陶宛韃靼人</t>
+    <t>立陶宛鞑靼人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%AB%E8%84%AB%E8%BF%B7%E5%A4%B1</t>
   </si>
   <si>
-    <t>脫脫迷失</t>
+    <t>脱脱迷失</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E5%A4%A7%E5%85%AC</t>
@@ -851,33 +818,30 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E9%9B%BB%E7%AB%99</t>
   </si>
   <si>
-    <t>核電站</t>
+    <t>核电站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
+    <t>天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
+    <t>爱沙尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E6%9E%B6%E5%B1%B1</t>
   </si>
   <si>
@@ -905,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8C%97%E6%96%B9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>大北方戰爭</t>
+    <t>大北方战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E6%9C%AC%E9%83%A8</t>
@@ -929,9 +893,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%87%8C%E5%AF%A7%E6%A0%BC%E5%8B%92%E5%B7%9E</t>
   </si>
   <si>
-    <t>加里寧格勒州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Europe</t>
   </si>
   <si>
@@ -995,9 +956,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
   </si>
   <si>
-    <t>北欧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
   </si>
   <si>
@@ -1061,9 +1019,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奥地利</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
   </si>
   <si>
@@ -1079,27 +1034,18 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
   </si>
   <si>
-    <t>东欧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
   </si>
   <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
   </si>
   <si>
@@ -1115,13 +1061,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -1133,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -1145,13 +1091,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -1169,13 +1115,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -1193,25 +1139,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
-    <t>聖座</t>
+    <t>圣座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
+    <t>梵蒂冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -1241,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1259,19 +1205,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
   </si>
   <si>
-    <t>揚馬延島</t>
+    <t>扬马延岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
@@ -1289,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -1343,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1385,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
   </si>
   <si>
-    <t>盧森堡市</t>
+    <t>卢森堡市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
@@ -1409,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%83%BD%E8%8C%B2</t>
   </si>
   <si>
-    <t>瓦都茲</t>
+    <t>瓦都兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9C%AC%E5%93%88%E6%A0%B9</t>
@@ -1439,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E9%9B%85%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>雷克雅維克</t>
+    <t>雷克雅维克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BE%B7%E9%87%8C</t>
@@ -1487,13 +1433,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
   </si>
   <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8A%9B%E8%AB%BE_(%E5%9F%8E%E5%B8%82)</t>
   </si>
   <si>
-    <t>聖馬力諾 (城市)</t>
+    <t>圣马力诺 (城市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
@@ -1517,7 +1460,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%85%B1%E5%92%8C%E5%9C%8B_(2017%E5%B9%B4)</t>
   </si>
   <si>
-    <t>加泰隆尼亞共和國 (2017年)</t>
+    <t>加泰隆尼亚共和国 (2017年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%BD%97%E9%82%A3</t>
@@ -1601,13 +1544,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%8F%B2%E4%BA%9E</t>
   </si>
   <si>
-    <t>索菲亞</t>
+    <t>索菲亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BE%B7%E6%88%88%E9%87%8C%E5%AF%9F</t>
@@ -1619,7 +1559,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E4%BB%80%E8%92%82%E7%B4%8D</t>
   </si>
   <si>
-    <t>普里什蒂納</t>
+    <t>普里什蒂纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E8%80%B6%E4%BD%9B</t>
@@ -1691,27 +1631,15 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
@@ -1739,7 +1667,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
   </si>
   <si>
-    <t>北約擴張</t>
+    <t>北约扩张</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/North_Atlantic_Council</t>
@@ -1769,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>北約秘書長</t>
+    <t>北约秘书长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chairman_of_the_NATO_Military_Committee</t>
@@ -1793,7 +1721,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>加拿大軍隊</t>
+    <t>加拿大军队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Army_of_the_Czech_Republic</t>
@@ -1877,7 +1805,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
   </si>
   <si>
-    <t>主要非北約盟友</t>
+    <t>主要非北约盟友</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mediterranean_Dialogue</t>
@@ -1901,7 +1829,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>地中海聯盟</t>
+    <t>地中海联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -1919,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
@@ -1961,13 +1889,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
@@ -1979,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -2009,7 +1937,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
@@ -2063,7 +1991,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -2105,7 +2033,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -2189,7 +2117,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
@@ -2267,7 +2195,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -2285,13 +2213,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -2363,9 +2291,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
   </si>
   <si>
@@ -2381,7 +2306,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%87%E8%81%AF%E5%90%88%E5%9C%8B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國與聯合國關係</t>
+    <t>中国与联合国关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -2393,7 +2318,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國聯盟</t>
+    <t>四国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%94%B9%E9%9D%A9</t>
@@ -2405,13 +2330,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B_(%E5%A4%A7%E9%99%B8%E6%99%82%E6%9C%9F)</t>
   </si>
   <si>
-    <t>中華民國 (大陸時期)</t>
+    <t>中华民国 (大陆时期)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -2429,19 +2354,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2459,7 +2384,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2471,13 +2396,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4849,7 +4774,7 @@
         <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -4875,10 +4800,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -4904,10 +4829,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4933,10 +4858,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4962,10 +4887,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G74" t="n">
         <v>11</v>
@@ -4991,10 +4916,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -5020,10 +4945,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5049,10 +4974,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="G77" t="n">
         <v>11</v>
@@ -5078,10 +5003,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5107,10 +5032,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -5136,10 +5061,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -5165,10 +5090,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5194,10 +5119,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5223,10 +5148,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5252,10 +5177,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5281,10 +5206,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -5310,10 +5235,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5339,10 +5264,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5368,10 +5293,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5397,10 +5322,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -5426,10 +5351,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5455,10 +5380,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5484,10 +5409,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5513,10 +5438,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5542,10 +5467,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5571,10 +5496,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5600,10 +5525,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5629,10 +5554,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5658,10 +5583,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5687,10 +5612,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5716,10 +5641,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5745,10 +5670,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5774,10 +5699,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5803,10 +5728,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5832,10 +5757,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5861,10 +5786,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5890,10 +5815,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="G106" t="n">
         <v>8</v>
@@ -5919,10 +5844,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5948,10 +5873,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5977,10 +5902,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6006,10 +5931,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6035,10 +5960,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6064,10 +5989,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -6093,10 +6018,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6122,10 +6047,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -6151,10 +6076,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="G115" t="n">
         <v>6</v>
@@ -6180,10 +6105,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6209,10 +6134,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6238,10 +6163,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6267,10 +6192,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6296,10 +6221,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6325,10 +6250,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6354,10 +6279,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6383,10 +6308,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6412,10 +6337,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6441,10 +6366,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6470,10 +6395,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6499,10 +6424,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6528,10 +6453,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6557,10 +6482,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6586,10 +6511,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6615,10 +6540,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6644,10 +6569,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6673,10 +6598,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6702,10 +6627,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6731,10 +6656,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6760,10 +6685,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6789,10 +6714,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
         <v>4</v>
@@ -6818,10 +6743,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6847,10 +6772,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -6876,10 +6801,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6905,10 +6830,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6934,10 +6859,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6963,10 +6888,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6992,10 +6917,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7021,10 +6946,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -7050,10 +6975,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>124</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -7079,10 +7004,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7108,10 +7033,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7137,10 +7062,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7166,10 +7091,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7195,10 +7120,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7224,10 +7149,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7253,10 +7178,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7282,10 +7207,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7311,10 +7236,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F155" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="G155" t="n">
         <v>7</v>
@@ -7340,10 +7265,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7369,10 +7294,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="G157" t="n">
         <v>9</v>
@@ -7398,10 +7323,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="G158" t="n">
         <v>12</v>
@@ -7427,10 +7352,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7456,10 +7381,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="G160" t="n">
         <v>9</v>
@@ -7485,10 +7410,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="G161" t="n">
         <v>4</v>
@@ -7514,10 +7439,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -7543,10 +7468,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -7572,10 +7497,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7601,10 +7526,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G165" t="n">
         <v>5</v>
@@ -7630,10 +7555,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G166" t="n">
         <v>6</v>
@@ -7659,10 +7584,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>142</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -7688,10 +7613,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -7717,10 +7642,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G169" t="n">
         <v>4</v>
@@ -7746,10 +7671,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="G170" t="n">
         <v>5</v>
@@ -7775,10 +7700,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>5</v>
@@ -7804,10 +7729,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -7833,10 +7758,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7862,10 +7787,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -7891,10 +7816,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G175" t="n">
         <v>6</v>
@@ -7920,10 +7845,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="G176" t="n">
         <v>6</v>
@@ -7949,10 +7874,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G177" t="n">
         <v>6</v>
@@ -7978,10 +7903,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>181</v>
       </c>
       <c r="G178" t="n">
         <v>5</v>
@@ -8007,10 +7932,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -8036,10 +7961,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8065,10 +7990,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>144</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -8094,10 +8019,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8123,10 +8048,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="G183" t="n">
         <v>6</v>
@@ -8152,10 +8077,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -8181,10 +8106,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -8210,10 +8135,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8239,10 +8164,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -8268,10 +8193,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8297,10 +8222,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -8326,10 +8251,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8355,10 +8280,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8384,10 +8309,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="G192" t="n">
         <v>5</v>
@@ -8413,10 +8338,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8442,10 +8367,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -8471,10 +8396,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -8500,10 +8425,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="G196" t="n">
         <v>4</v>
@@ -8529,10 +8454,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G197" t="n">
         <v>4</v>
@@ -8558,10 +8483,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8587,10 +8512,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="G199" t="n">
         <v>4</v>
@@ -8616,10 +8541,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="G200" t="n">
         <v>5</v>
@@ -8645,10 +8570,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="G201" t="n">
         <v>4</v>
@@ -8674,10 +8599,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8703,10 +8628,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8732,10 +8657,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8761,10 +8686,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G205" t="n">
         <v>5</v>
@@ -8790,10 +8715,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="G206" t="n">
         <v>5</v>
@@ -8819,10 +8744,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="G207" t="n">
         <v>4</v>
@@ -8848,10 +8773,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8877,10 +8802,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8906,10 +8831,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8935,10 +8860,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8964,10 +8889,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8993,10 +8918,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9022,10 +8947,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9051,10 +8976,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9080,10 +9005,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9109,10 +9034,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="G217" t="n">
         <v>4</v>
@@ -9138,10 +9063,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9167,10 +9092,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9196,10 +9121,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9225,10 +9150,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9254,10 +9179,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9283,10 +9208,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9312,10 +9237,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9341,10 +9266,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9370,10 +9295,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9399,10 +9324,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9428,10 +9353,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9457,10 +9382,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9486,10 +9411,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="F230" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -9515,10 +9440,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9544,10 +9469,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9573,10 +9498,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9602,10 +9527,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9631,10 +9556,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9660,10 +9585,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="F236" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9689,10 +9614,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9718,10 +9643,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9747,10 +9672,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9776,10 +9701,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9805,10 +9730,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9834,10 +9759,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9863,10 +9788,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9892,10 +9817,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9921,10 +9846,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9950,10 +9875,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9979,10 +9904,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -10008,10 +9933,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10037,10 +9962,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10066,10 +9991,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10095,10 +10020,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>380</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10124,10 +10049,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="F252" t="s">
-        <v>490</v>
+        <v>380</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10153,10 +10078,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10182,10 +10107,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10211,10 +10136,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10240,10 +10165,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="F256" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10269,10 +10194,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F257" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10298,10 +10223,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="F258" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10327,10 +10252,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="F259" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10356,10 +10281,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="F260" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10385,10 +10310,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="F261" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10414,10 +10339,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="F262" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10443,10 +10368,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="F263" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10472,10 +10397,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="F264" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10501,10 +10426,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="F265" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10530,10 +10455,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="F266" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10559,10 +10484,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="F267" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10588,10 +10513,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="F268" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10617,10 +10542,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="F269" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10646,10 +10571,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="F270" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10675,10 +10600,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="F271" t="s">
-        <v>528</v>
+        <v>360</v>
       </c>
       <c r="G271" t="n">
         <v>5</v>
@@ -10704,10 +10629,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="F272" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10733,10 +10658,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="F273" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10762,10 +10687,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="F274" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10791,10 +10716,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F275" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10820,10 +10745,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="F276" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10849,10 +10774,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="F277" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G277" t="n">
         <v>4</v>
@@ -10878,10 +10803,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10907,10 +10832,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10936,10 +10861,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10965,10 +10890,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10994,10 +10919,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="G282" t="n">
         <v>5</v>
@@ -11023,10 +10948,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11052,10 +10977,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11081,10 +11006,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11110,10 +11035,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="G286" t="n">
         <v>8</v>
@@ -11139,10 +11064,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>309</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11168,10 +11093,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>314</v>
       </c>
       <c r="G288" t="n">
         <v>3</v>
@@ -11197,10 +11122,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>326</v>
       </c>
       <c r="G289" t="n">
         <v>3</v>
@@ -11226,10 +11151,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>372</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -11255,10 +11180,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="F291" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="G291" t="n">
         <v>9</v>
@@ -11284,10 +11209,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -11313,10 +11238,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="G293" t="n">
         <v>4</v>
@@ -11342,10 +11267,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11371,10 +11296,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11400,10 +11325,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11429,10 +11354,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11458,10 +11383,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11487,10 +11412,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11516,10 +11441,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11545,10 +11470,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11574,10 +11499,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11603,10 +11528,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11632,10 +11557,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11661,10 +11586,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11690,10 +11615,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11719,10 +11644,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11748,10 +11673,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11777,10 +11702,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11806,10 +11731,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11835,10 +11760,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11864,10 +11789,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11893,10 +11818,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11922,10 +11847,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -11951,10 +11876,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11980,10 +11905,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12009,10 +11934,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12038,10 +11963,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12067,10 +11992,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12096,10 +12021,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12125,10 +12050,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12154,10 +12079,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12183,10 +12108,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="G323" t="n">
         <v>5</v>
@@ -12212,10 +12137,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -12241,10 +12166,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12270,10 +12195,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12299,10 +12224,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12328,10 +12253,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
@@ -12357,10 +12282,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12386,10 +12311,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12415,10 +12340,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="F331" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G331" t="n">
         <v>3</v>
@@ -12444,10 +12369,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="F332" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12473,10 +12398,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="F333" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12502,10 +12427,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="F334" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="G334" t="n">
         <v>3</v>
@@ -12531,10 +12456,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="F335" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12560,10 +12485,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="F336" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12589,10 +12514,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="F337" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12618,10 +12543,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="F338" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12647,10 +12572,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="F339" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12676,10 +12601,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="F340" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12705,10 +12630,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="F341" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12734,10 +12659,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="F342" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12763,10 +12688,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="F343" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12792,10 +12717,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="F344" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12821,10 +12746,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="F345" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12850,10 +12775,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="F346" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12879,10 +12804,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="F347" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12908,10 +12833,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="F348" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12937,10 +12862,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="F349" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12966,10 +12891,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="F350" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -12995,10 +12920,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="F351" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13024,10 +12949,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="F352" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13053,10 +12978,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="F353" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13082,10 +13007,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="F354" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13111,10 +13036,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="F355" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13140,10 +13065,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="F356" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13169,10 +13094,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="F357" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13198,10 +13123,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="F358" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13227,10 +13152,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="F359" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13256,10 +13181,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="F360" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13285,10 +13210,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="F361" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13314,10 +13239,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="F362" t="s">
-        <v>702</v>
+        <v>678</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13343,10 +13268,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
       <c r="F363" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13372,10 +13297,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
       <c r="F364" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13401,10 +13326,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="F365" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13430,10 +13355,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="F366" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13459,10 +13384,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
       <c r="F367" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13488,10 +13413,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="F368" t="s">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13517,10 +13442,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="F369" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13546,10 +13471,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>717</v>
+        <v>693</v>
       </c>
       <c r="F370" t="s">
-        <v>718</v>
+        <v>694</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13575,10 +13500,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="F371" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13604,10 +13529,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
       <c r="F372" t="s">
-        <v>722</v>
+        <v>698</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13633,10 +13558,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>723</v>
+        <v>699</v>
       </c>
       <c r="F373" t="s">
-        <v>724</v>
+        <v>700</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13662,10 +13587,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="F374" t="s">
-        <v>726</v>
+        <v>702</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13691,10 +13616,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>727</v>
+        <v>703</v>
       </c>
       <c r="F375" t="s">
-        <v>728</v>
+        <v>704</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13720,10 +13645,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="F376" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13749,10 +13674,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="F377" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13778,10 +13703,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="F378" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13807,10 +13732,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="F379" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13836,10 +13761,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="F380" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13865,10 +13790,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="F381" t="s">
-        <v>740</v>
+        <v>716</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13894,10 +13819,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
       <c r="F382" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13923,10 +13848,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="F383" t="s">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13952,10 +13877,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>745</v>
+        <v>721</v>
       </c>
       <c r="F384" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13981,10 +13906,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="F385" t="s">
-        <v>748</v>
+        <v>724</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14010,10 +13935,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="F386" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14039,10 +13964,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="F387" t="s">
-        <v>752</v>
+        <v>728</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14068,10 +13993,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="F388" t="s">
-        <v>754</v>
+        <v>730</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14097,10 +14022,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>755</v>
+        <v>731</v>
       </c>
       <c r="F389" t="s">
-        <v>756</v>
+        <v>732</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14126,10 +14051,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>757</v>
+        <v>733</v>
       </c>
       <c r="F390" t="s">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14155,10 +14080,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="F391" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
       <c r="G391" t="n">
         <v>7</v>
@@ -14184,10 +14109,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>761</v>
+        <v>737</v>
       </c>
       <c r="F392" t="s">
-        <v>762</v>
+        <v>738</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -14213,10 +14138,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>763</v>
+        <v>739</v>
       </c>
       <c r="F393" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14242,10 +14167,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="F394" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14271,10 +14196,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
       <c r="F395" t="s">
-        <v>768</v>
+        <v>744</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14300,10 +14225,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="F396" t="s">
-        <v>770</v>
+        <v>746</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14329,10 +14254,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
       <c r="F397" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14358,10 +14283,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="F398" t="s">
-        <v>774</v>
+        <v>750</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14387,10 +14312,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="F399" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14416,10 +14341,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="F400" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14445,10 +14370,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>779</v>
+        <v>755</v>
       </c>
       <c r="F401" t="s">
-        <v>780</v>
+        <v>756</v>
       </c>
       <c r="G401" t="n">
         <v>2</v>
@@ -14474,10 +14399,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>781</v>
+        <v>757</v>
       </c>
       <c r="F402" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14503,10 +14428,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
       <c r="F403" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14532,10 +14457,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="F404" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14561,10 +14486,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="F405" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14590,10 +14515,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="F406" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14619,10 +14544,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="F407" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14648,10 +14573,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="F408" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14677,10 +14602,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>795</v>
+        <v>770</v>
       </c>
       <c r="F409" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -14706,10 +14631,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>797</v>
+        <v>772</v>
       </c>
       <c r="F410" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
       <c r="G410" t="n">
         <v>3</v>
@@ -14735,10 +14660,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="F411" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="G411" t="n">
         <v>4</v>
@@ -14764,10 +14689,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>761</v>
+        <v>737</v>
       </c>
       <c r="F412" t="s">
-        <v>762</v>
+        <v>738</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14793,10 +14718,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
       <c r="F413" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14822,10 +14747,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="F414" t="s">
-        <v>804</v>
+        <v>779</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14851,10 +14776,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="F415" t="s">
-        <v>806</v>
+        <v>781</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14880,10 +14805,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="F416" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14909,10 +14834,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="F417" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
       <c r="G417" t="n">
         <v>3</v>
@@ -14938,10 +14863,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="F418" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14967,10 +14892,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>811</v>
+        <v>786</v>
       </c>
       <c r="F419" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14996,10 +14921,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
       <c r="F420" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15025,10 +14950,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="F421" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15054,10 +14979,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="F422" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15083,10 +15008,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
       <c r="F423" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>

--- a/xlsx/立陶宛_intext.xlsx
+++ b/xlsx/立陶宛_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="833">
   <si>
     <t>立陶宛</t>
   </si>
@@ -29,7 +29,7 @@
     <t>立陶宛國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_立陶宛</t>
+    <t>体育运动_体育运动_欧洲议会_立陶宛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E5%9C%8B%E5%BE%BD</t>
@@ -968,436 +968,472 @@
     <t>英国</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>荷兰王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦斯登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>斯洛維尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特內哥羅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>馬其頓共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
+  </si>
+  <si>
+    <t>馬爾他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>義大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>聖座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>澤西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亞洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>布鲁塞尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
+  </si>
+  <si>
+    <t>盧森堡市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>伯尔尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>维也纳</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>爱尔兰共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>荷兰王国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦斯登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>義大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>聖座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>澤西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>阿姆斯特丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>布鲁塞尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
-  </si>
-  <si>
-    <t>盧森堡市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>伯尔尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
@@ -2826,7 +2862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I423"/>
+  <dimension ref="A1:I429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4765,7 +4801,7 @@
         <v>128</v>
       </c>
       <c r="G67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -5896,7 +5932,7 @@
         <v>206</v>
       </c>
       <c r="G106" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -7404,7 +7440,7 @@
         <v>308</v>
       </c>
       <c r="G158" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -7549,7 +7585,7 @@
         <v>318</v>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -7578,7 +7614,7 @@
         <v>320</v>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -7607,7 +7643,7 @@
         <v>322</v>
       </c>
       <c r="G165" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7636,7 +7672,7 @@
         <v>324</v>
       </c>
       <c r="G166" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -7694,7 +7730,7 @@
         <v>328</v>
       </c>
       <c r="G168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -7723,7 +7759,7 @@
         <v>330</v>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -7752,7 +7788,7 @@
         <v>332</v>
       </c>
       <c r="G170" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -7781,7 +7817,7 @@
         <v>334</v>
       </c>
       <c r="G171" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7839,7 +7875,7 @@
         <v>338</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -7868,7 +7904,7 @@
         <v>340</v>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -7897,7 +7933,7 @@
         <v>342</v>
       </c>
       <c r="G175" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7926,7 +7962,7 @@
         <v>344</v>
       </c>
       <c r="G176" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -7955,7 +7991,7 @@
         <v>346</v>
       </c>
       <c r="G177" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -7984,7 +8020,7 @@
         <v>348</v>
       </c>
       <c r="G178" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -8013,7 +8049,7 @@
         <v>350</v>
       </c>
       <c r="G179" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -8042,7 +8078,7 @@
         <v>352</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -8071,7 +8107,7 @@
         <v>354</v>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -8100,7 +8136,7 @@
         <v>356</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -8129,7 +8165,7 @@
         <v>358</v>
       </c>
       <c r="G183" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -8158,7 +8194,7 @@
         <v>360</v>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -8187,7 +8223,7 @@
         <v>362</v>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -8210,10 +8246,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>162</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8239,13 +8275,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -8268,13 +8304,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -8297,10 +8333,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -8326,13 +8362,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -8355,10 +8391,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8384,13 +8420,13 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -8413,10 +8449,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8442,10 +8478,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -8471,13 +8507,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8500,13 +8536,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -8529,13 +8565,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -8558,13 +8594,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -8587,13 +8623,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8616,13 +8652,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -8645,10 +8681,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>4</v>
@@ -8674,13 +8710,13 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -8703,10 +8739,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8732,13 +8768,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -8761,10 +8797,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>5</v>
@@ -8790,13 +8826,13 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -8819,13 +8855,13 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -8848,10 +8884,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8877,13 +8913,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -8906,13 +8942,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -8935,13 +8971,13 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -8964,13 +9000,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -8993,10 +9029,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9022,10 +9058,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9051,10 +9087,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9080,10 +9116,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9109,13 +9145,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G217" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9138,10 +9174,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9167,13 +9203,13 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9196,10 +9232,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9225,10 +9261,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9254,10 +9290,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9283,13 +9319,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -9312,10 +9348,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9341,13 +9377,13 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -9370,10 +9406,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9399,10 +9435,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9428,10 +9464,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9457,13 +9493,13 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -9486,13 +9522,13 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>319</v>
+        <v>449</v>
       </c>
       <c r="F230" t="s">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="G230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -9637,7 +9673,7 @@
         <v>460</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9660,13 +9696,13 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="F236" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -9956,7 +9992,7 @@
         <v>480</v>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -9985,7 +10021,7 @@
         <v>482</v>
       </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10124,13 +10160,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F252" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -10153,13 +10189,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -10182,10 +10218,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10211,10 +10247,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10240,10 +10276,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F256" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10269,10 +10305,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10681,7 +10717,7 @@
         <v>528</v>
       </c>
       <c r="G271" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -10849,13 +10885,13 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>373</v>
+        <v>539</v>
       </c>
       <c r="F277" t="s">
-        <v>374</v>
+        <v>540</v>
       </c>
       <c r="G277" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -10878,10 +10914,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10907,10 +10943,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10936,13 +10972,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -10965,10 +11001,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10994,13 +11030,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G282" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -11023,13 +11059,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>381</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>382</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11116,7 +11152,7 @@
         <v>556</v>
       </c>
       <c r="G286" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -11145,7 +11181,7 @@
         <v>558</v>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -11174,7 +11210,7 @@
         <v>560</v>
       </c>
       <c r="G288" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -11203,7 +11239,7 @@
         <v>562</v>
       </c>
       <c r="G289" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -11232,7 +11268,7 @@
         <v>564</v>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11255,13 +11291,13 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>315</v>
+        <v>565</v>
       </c>
       <c r="F291" t="s">
-        <v>316</v>
+        <v>566</v>
       </c>
       <c r="G291" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11284,13 +11320,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G292" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11313,13 +11349,13 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G293" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11342,13 +11378,13 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -11371,13 +11407,13 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -11400,13 +11436,13 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -11429,13 +11465,13 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>315</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>316</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -11464,7 +11500,7 @@
         <v>578</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11493,7 +11529,7 @@
         <v>580</v>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -11609,7 +11645,7 @@
         <v>588</v>
       </c>
       <c r="G303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -11667,7 +11703,7 @@
         <v>592</v>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -11783,7 +11819,7 @@
         <v>600</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -11841,7 +11877,7 @@
         <v>604</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -11928,7 +11964,7 @@
         <v>610</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -12102,7 +12138,7 @@
         <v>622</v>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -12189,7 +12225,7 @@
         <v>628</v>
       </c>
       <c r="G323" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12218,7 +12254,7 @@
         <v>630</v>
       </c>
       <c r="G324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -12247,7 +12283,7 @@
         <v>632</v>
       </c>
       <c r="G325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12276,7 +12312,7 @@
         <v>634</v>
       </c>
       <c r="G326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -12334,7 +12370,7 @@
         <v>638</v>
       </c>
       <c r="G328" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12363,7 +12399,7 @@
         <v>640</v>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12392,7 +12428,7 @@
         <v>642</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -12415,13 +12451,13 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>371</v>
+        <v>643</v>
       </c>
       <c r="F331" t="s">
-        <v>372</v>
+        <v>644</v>
       </c>
       <c r="G331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -12444,10 +12480,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F332" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12473,10 +12509,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F333" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12502,10 +12538,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F334" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G334" t="n">
         <v>3</v>
@@ -12531,10 +12567,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F335" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12560,10 +12596,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F336" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12589,13 +12625,13 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>653</v>
+        <v>379</v>
       </c>
       <c r="F337" t="s">
-        <v>654</v>
+        <v>380</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -12624,7 +12660,7 @@
         <v>656</v>
       </c>
       <c r="G338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -12682,7 +12718,7 @@
         <v>660</v>
       </c>
       <c r="G340" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -12972,7 +13008,7 @@
         <v>680</v>
       </c>
       <c r="G350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -13059,7 +13095,7 @@
         <v>686</v>
       </c>
       <c r="G353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -13111,10 +13147,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>383</v>
+        <v>689</v>
       </c>
       <c r="F355" t="s">
-        <v>384</v>
+        <v>690</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13140,13 +13176,13 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F356" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -13169,10 +13205,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F357" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13198,10 +13234,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F358" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13227,13 +13263,13 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F359" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -13256,10 +13292,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F360" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13285,10 +13321,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>699</v>
+        <v>391</v>
       </c>
       <c r="F361" t="s">
-        <v>700</v>
+        <v>392</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13407,7 +13443,7 @@
         <v>708</v>
       </c>
       <c r="G365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -13581,7 +13617,7 @@
         <v>720</v>
       </c>
       <c r="G371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -13987,7 +14023,7 @@
         <v>748</v>
       </c>
       <c r="G385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -14161,7 +14197,7 @@
         <v>760</v>
       </c>
       <c r="G391" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -14190,7 +14226,7 @@
         <v>762</v>
       </c>
       <c r="G392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -14248,7 +14284,7 @@
         <v>766</v>
       </c>
       <c r="G394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -14335,7 +14371,7 @@
         <v>772</v>
       </c>
       <c r="G397" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -14364,7 +14400,7 @@
         <v>774</v>
       </c>
       <c r="G398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -14422,7 +14458,7 @@
         <v>778</v>
       </c>
       <c r="G400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H400" t="s">
         <v>4</v>
@@ -14451,7 +14487,7 @@
         <v>780</v>
       </c>
       <c r="G401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -14625,7 +14661,7 @@
         <v>792</v>
       </c>
       <c r="G407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H407" t="s">
         <v>4</v>
@@ -14683,7 +14719,7 @@
         <v>796</v>
       </c>
       <c r="G409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
@@ -14712,7 +14748,7 @@
         <v>798</v>
       </c>
       <c r="G410" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H410" t="s">
         <v>4</v>
@@ -14741,7 +14777,7 @@
         <v>800</v>
       </c>
       <c r="G411" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H411" t="s">
         <v>4</v>
@@ -14764,10 +14800,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>761</v>
+        <v>801</v>
       </c>
       <c r="F412" t="s">
-        <v>762</v>
+        <v>802</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14793,10 +14829,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F413" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14822,10 +14858,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F414" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14851,13 +14887,13 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F415" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H415" t="s">
         <v>4</v>
@@ -14880,13 +14916,13 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>765</v>
+        <v>809</v>
       </c>
       <c r="F416" t="s">
-        <v>766</v>
+        <v>810</v>
       </c>
       <c r="G416" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H416" t="s">
         <v>4</v>
@@ -14909,13 +14945,13 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F417" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="G417" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H417" t="s">
         <v>4</v>
@@ -14938,10 +14974,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>809</v>
+        <v>773</v>
       </c>
       <c r="F418" t="s">
-        <v>810</v>
+        <v>774</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14967,10 +15003,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F419" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14996,10 +15032,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F420" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15025,10 +15061,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F421" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15054,10 +15090,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>817</v>
+        <v>777</v>
       </c>
       <c r="F422" t="s">
-        <v>818</v>
+        <v>778</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15089,12 +15125,186 @@
         <v>820</v>
       </c>
       <c r="G423" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
       </c>
       <c r="I423" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>0</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1</v>
+      </c>
+      <c r="D424" t="n">
+        <v>423</v>
+      </c>
+      <c r="E424" t="s">
+        <v>821</v>
+      </c>
+      <c r="F424" t="s">
+        <v>822</v>
+      </c>
+      <c r="G424" t="n">
+        <v>1</v>
+      </c>
+      <c r="H424" t="s">
+        <v>4</v>
+      </c>
+      <c r="I424" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1</v>
+      </c>
+      <c r="D425" t="n">
+        <v>424</v>
+      </c>
+      <c r="E425" t="s">
+        <v>823</v>
+      </c>
+      <c r="F425" t="s">
+        <v>824</v>
+      </c>
+      <c r="G425" t="n">
+        <v>1</v>
+      </c>
+      <c r="H425" t="s">
+        <v>4</v>
+      </c>
+      <c r="I425" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>0</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1</v>
+      </c>
+      <c r="D426" t="n">
+        <v>425</v>
+      </c>
+      <c r="E426" t="s">
+        <v>825</v>
+      </c>
+      <c r="F426" t="s">
+        <v>826</v>
+      </c>
+      <c r="G426" t="n">
+        <v>1</v>
+      </c>
+      <c r="H426" t="s">
+        <v>4</v>
+      </c>
+      <c r="I426" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1</v>
+      </c>
+      <c r="D427" t="n">
+        <v>426</v>
+      </c>
+      <c r="E427" t="s">
+        <v>827</v>
+      </c>
+      <c r="F427" t="s">
+        <v>828</v>
+      </c>
+      <c r="G427" t="n">
+        <v>1</v>
+      </c>
+      <c r="H427" t="s">
+        <v>4</v>
+      </c>
+      <c r="I427" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1</v>
+      </c>
+      <c r="D428" t="n">
+        <v>427</v>
+      </c>
+      <c r="E428" t="s">
+        <v>829</v>
+      </c>
+      <c r="F428" t="s">
+        <v>830</v>
+      </c>
+      <c r="G428" t="n">
+        <v>1</v>
+      </c>
+      <c r="H428" t="s">
+        <v>4</v>
+      </c>
+      <c r="I428" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>0</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1</v>
+      </c>
+      <c r="D429" t="n">
+        <v>428</v>
+      </c>
+      <c r="E429" t="s">
+        <v>831</v>
+      </c>
+      <c r="F429" t="s">
+        <v>832</v>
+      </c>
+      <c r="G429" t="n">
+        <v>1</v>
+      </c>
+      <c r="H429" t="s">
+        <v>4</v>
+      </c>
+      <c r="I429" t="n">
         <v>3</v>
       </c>
     </row>
